--- a/biology/Zoologie/Cerapachyinae/Cerapachyinae.xlsx
+++ b/biology/Zoologie/Cerapachyinae/Cerapachyinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cerapachyinae sont une sous-famille de fourmis dorylomorphes.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Cerapachyinae est attribuée en 1902 à l'entomologiste américain William Morton Wheeler (1865-1937).
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des tribus</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (8 mars 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (8 mars 2022) :
 tribu Acanthostichini
 tribu Cerapachyini
 tribu Cylindromyrmecini</t>
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (8 mars 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (8 mars 2022) :
 genre Acanthostichus Mayr, 1887
 genre Aenictogiton Emery, 1901
 genre Aenictus Shuckard, 1840
@@ -606,7 +624,7 @@
 genre Vicinopone Bolton &amp; Fisher, 2012
 genre Yunodorylus Z. Xu, 2000
 genre Zasphinctus W.M. Wheeler, 1918
-Selon NCBI  (8 mars 2022)[1] :
+Selon NCBI  (8 mars 2022) :
 genre Acanthostichus
 genre Aenictogiton
 genre Aenictus
